--- a/.net平台sesstion参数含义.xlsx
+++ b/.net平台sesstion参数含义.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,22 @@
   <si>
     <t xml:space="preserve"> 第一列：存储id所对应的数据信息
 第二列：处理选择题的时候，动态处理本地选项数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>people员工管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> online在线考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> localStorage.setItem('online', JSON.stringify("id"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入相应的考试试卷id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,11 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,6 +571,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
